--- a/datafiles/Edmwcompiled311017.xlsx
+++ b/datafiles/Edmwcompiled311017.xlsx
@@ -54,7 +54,7 @@
  It's super effective!
  ...
  Overall, your Akpet is not likely to make much headway in battle."
- at my butt.
+ at my buttt.
  shikasushi wrote: 
  Don't make buiji sound like a Pokemon leh 
  __________________
@@ -381,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
